--- a/reports/Comparativa.xlsx
+++ b/reports/Comparativa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Universidad\DP2\Workspace-21.1\Projects\G98-DP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Universidad\DP2\Workspace-21.1\Projects\G98-DP2\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73DD5ABE-CBD6-4AB9-B452-1410260F3FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC99A7A-F6D3-43B9-8F50-2872B9091E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D35EAB15-E639-4BAC-9261-B3A8FD2F93E1}"/>
   </bookViews>
@@ -88,7 +88,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +98,14 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -217,6 +225,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1740,10 +1751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2003DE86-C5E5-401D-ADA6-B7ACA17427C7}">
-  <dimension ref="A1:I83"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1789,13 +1800,16 @@
       <c r="E3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="9">
         <v>410.80487804878049</v>
+      </c>
+      <c r="G3" s="9">
+        <v>1068.4285714285713</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="9">
         <v>1068.4285714285713</v>
       </c>
     </row>
@@ -1809,13 +1823,16 @@
       <c r="E4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="9">
         <v>22.97878418107334</v>
+      </c>
+      <c r="G4" s="9">
+        <v>39.085757362131652</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="9">
         <v>39.085757362131652</v>
       </c>
     </row>
@@ -1829,13 +1846,16 @@
       <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="9">
         <v>584</v>
+      </c>
+      <c r="G5" s="9">
+        <v>1068</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="9">
         <v>1068</v>
       </c>
     </row>
@@ -1849,13 +1869,16 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="9">
         <v>592</v>
+      </c>
+      <c r="G6" s="9">
+        <v>1448</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="9">
         <v>1448</v>
       </c>
     </row>
@@ -1869,13 +1892,16 @@
       <c r="E7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="9">
         <v>208.08174076575872</v>
+      </c>
+      <c r="G7" s="9">
+        <v>273.60030153492158</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="9">
         <v>273.60030153492158</v>
       </c>
     </row>
@@ -1889,13 +1915,16 @@
       <c r="E8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="9">
         <v>43298.010840108414</v>
+      </c>
+      <c r="G8" s="9">
+        <v>74857.125</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="9">
         <v>74857.125</v>
       </c>
     </row>
@@ -1909,13 +1938,16 @@
       <c r="E9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="9">
         <v>-1.9585370210599007</v>
+      </c>
+      <c r="G9" s="9">
+        <v>-0.9426816576017143</v>
       </c>
       <c r="H9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="9">
         <v>-0.9426816576017143</v>
       </c>
     </row>
@@ -1929,13 +1961,16 @@
       <c r="E10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="9">
         <v>-0.26414210433952362</v>
+      </c>
+      <c r="G10" s="9">
+        <v>-0.32569211509997165</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="9">
         <v>-0.32569211509997165</v>
       </c>
     </row>
@@ -1949,13 +1984,16 @@
       <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="9">
         <v>457</v>
+      </c>
+      <c r="G11" s="9">
+        <v>965</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="9">
         <v>965</v>
       </c>
     </row>
@@ -1969,13 +2007,16 @@
       <c r="E12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="9">
         <v>157</v>
+      </c>
+      <c r="G12" s="9">
+        <v>528</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="9">
         <v>528</v>
       </c>
     </row>
@@ -1989,13 +2030,16 @@
       <c r="E13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="9">
         <v>614</v>
+      </c>
+      <c r="G13" s="9">
+        <v>1493</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="9">
         <v>1493</v>
       </c>
     </row>
@@ -2009,13 +2053,16 @@
       <c r="E14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="9">
         <v>33686</v>
+      </c>
+      <c r="G14" s="9">
+        <v>52353</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="9">
         <v>52353</v>
       </c>
     </row>
@@ -2029,13 +2076,16 @@
       <c r="E15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="9">
         <v>82</v>
+      </c>
+      <c r="G15" s="9">
+        <v>49</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="9">
         <v>49</v>
       </c>
     </row>
@@ -2049,17 +2099,20 @@
       <c r="E16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="10">
         <v>45.720572614749472</v>
+      </c>
+      <c r="G16" s="10">
+        <v>78.587182280369092</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="10">
         <v>78.587182280369092</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>592</v>
       </c>
@@ -2067,7 +2120,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>164</v>
       </c>
@@ -2075,7 +2128,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>592</v>
       </c>
@@ -2083,15 +2136,16 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>189</v>
       </c>
       <c r="B20" s="5">
         <v>1026</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>592</v>
       </c>
@@ -2099,7 +2153,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>159</v>
       </c>
@@ -2107,7 +2161,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>174</v>
       </c>
@@ -2115,7 +2169,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>593</v>
       </c>
@@ -2123,7 +2177,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>603</v>
       </c>
@@ -2131,7 +2185,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>199</v>
       </c>
@@ -2139,7 +2193,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>159</v>
       </c>
@@ -2147,7 +2201,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>597</v>
       </c>
@@ -2155,7 +2209,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>159</v>
       </c>
@@ -2163,7 +2217,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>159</v>
       </c>
@@ -2171,7 +2225,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>603</v>
       </c>
@@ -2179,7 +2233,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>592</v>
       </c>
@@ -2498,6 +2552,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/reports/Comparativa.xlsx
+++ b/reports/Comparativa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Universidad\DP2\Workspace-21.1\Projects\G98-DP2\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC99A7A-F6D3-43B9-8F50-2872B9091E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C35058-FBF3-4B06-8F85-A5CED7F34437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D35EAB15-E639-4BAC-9261-B3A8FD2F93E1}"/>
+    <workbookView xWindow="2088" yWindow="1152" windowWidth="16584" windowHeight="9420" xr2:uid="{D35EAB15-E639-4BAC-9261-B3A8FD2F93E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -228,6 +228,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1417,16 +1418,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>678180</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1754,7 +1755,7 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,9 +1804,7 @@
       <c r="F3" s="9">
         <v>410.80487804878049</v>
       </c>
-      <c r="G3" s="9">
-        <v>1068.4285714285713</v>
-      </c>
+      <c r="G3" s="9"/>
       <c r="H3" s="6" t="s">
         <v>2</v>
       </c>
@@ -1826,9 +1825,7 @@
       <c r="F4" s="9">
         <v>22.97878418107334</v>
       </c>
-      <c r="G4" s="9">
-        <v>39.085757362131652</v>
-      </c>
+      <c r="G4" s="9"/>
       <c r="H4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1849,9 +1846,7 @@
       <c r="F5" s="9">
         <v>584</v>
       </c>
-      <c r="G5" s="9">
-        <v>1068</v>
-      </c>
+      <c r="G5" s="9"/>
       <c r="H5" s="6" t="s">
         <v>4</v>
       </c>
@@ -1872,9 +1867,7 @@
       <c r="F6" s="9">
         <v>592</v>
       </c>
-      <c r="G6" s="9">
-        <v>1448</v>
-      </c>
+      <c r="G6" s="9"/>
       <c r="H6" s="6" t="s">
         <v>5</v>
       </c>
@@ -1895,9 +1888,7 @@
       <c r="F7" s="9">
         <v>208.08174076575872</v>
       </c>
-      <c r="G7" s="9">
-        <v>273.60030153492158</v>
-      </c>
+      <c r="G7" s="9"/>
       <c r="H7" s="6" t="s">
         <v>6</v>
       </c>
@@ -1918,9 +1909,7 @@
       <c r="F8" s="9">
         <v>43298.010840108414</v>
       </c>
-      <c r="G8" s="9">
-        <v>74857.125</v>
-      </c>
+      <c r="G8" s="9"/>
       <c r="H8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1941,9 +1930,7 @@
       <c r="F9" s="9">
         <v>-1.9585370210599007</v>
       </c>
-      <c r="G9" s="9">
-        <v>-0.9426816576017143</v>
-      </c>
+      <c r="G9" s="9"/>
       <c r="H9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1964,9 +1951,7 @@
       <c r="F10" s="9">
         <v>-0.26414210433952362</v>
       </c>
-      <c r="G10" s="9">
-        <v>-0.32569211509997165</v>
-      </c>
+      <c r="G10" s="9"/>
       <c r="H10" s="6" t="s">
         <v>9</v>
       </c>
@@ -1987,9 +1972,7 @@
       <c r="F11" s="9">
         <v>457</v>
       </c>
-      <c r="G11" s="9">
-        <v>965</v>
-      </c>
+      <c r="G11" s="9"/>
       <c r="H11" s="6" t="s">
         <v>10</v>
       </c>
@@ -2010,9 +1993,7 @@
       <c r="F12" s="9">
         <v>157</v>
       </c>
-      <c r="G12" s="9">
-        <v>528</v>
-      </c>
+      <c r="G12" s="9"/>
       <c r="H12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2033,9 +2014,7 @@
       <c r="F13" s="9">
         <v>614</v>
       </c>
-      <c r="G13" s="9">
-        <v>1493</v>
-      </c>
+      <c r="G13" s="9"/>
       <c r="H13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2056,9 +2035,7 @@
       <c r="F14" s="9">
         <v>33686</v>
       </c>
-      <c r="G14" s="9">
-        <v>52353</v>
-      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="6" t="s">
         <v>13</v>
       </c>
@@ -2079,9 +2056,7 @@
       <c r="F15" s="9">
         <v>82</v>
       </c>
-      <c r="G15" s="9">
-        <v>49</v>
-      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="6" t="s">
         <v>14</v>
       </c>
@@ -2102,9 +2077,7 @@
       <c r="F16" s="10">
         <v>45.720572614749472</v>
       </c>
-      <c r="G16" s="10">
-        <v>78.587182280369092</v>
-      </c>
+      <c r="G16" s="12"/>
       <c r="H16" s="7" t="s">
         <v>15</v>
       </c>

--- a/reports/Comparativa.xlsx
+++ b/reports/Comparativa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Universidad\DP2\Workspace-21.1\Projects\G98-DP2\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C35058-FBF3-4B06-8F85-A5CED7F34437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B109977-31C8-4C40-8AD9-7AE7DC1FC130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2088" yWindow="1152" windowWidth="16584" windowHeight="9420" xr2:uid="{D35EAB15-E639-4BAC-9261-B3A8FD2F93E1}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D35EAB15-E639-4BAC-9261-B3A8FD2F93E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>My analysis</t>
   </si>
@@ -82,6 +82,27 @@
   </si>
   <si>
     <t>Nivel de confianza(95.0%)</t>
+  </si>
+  <si>
+    <t>Prueba F para varianzas de dos muestras</t>
+  </si>
+  <si>
+    <t>Varianza</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Grados de libertad</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P(F&lt;=f) una cola</t>
+  </si>
+  <si>
+    <t>Valor crítico para F (una cola)</t>
   </si>
 </sst>
 </file>
@@ -205,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -229,6 +250,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -261,6 +283,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Comparativa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1418,16 +1465,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>678180</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1755,333 +1802,334 @@
   <dimension ref="A1:J83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" style="2"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="H1" s="8" t="s">
+      <c r="E1" s="8"/>
+      <c r="G1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>283</v>
       </c>
       <c r="B2" s="1">
         <v>1036</v>
       </c>
+      <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>187</v>
       </c>
       <c r="B3" s="3">
         <v>1423</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="E3" s="9">
         <v>410.80487804878049</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6" t="s">
+      <c r="F3" s="9"/>
+      <c r="G3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="9">
+      <c r="H3" s="9">
         <v>1068.4285714285713</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>593</v>
       </c>
       <c r="B4" s="3">
         <v>1061</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="9">
+      <c r="E4" s="9">
         <v>22.97878418107334</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="6" t="s">
+      <c r="F4" s="9"/>
+      <c r="G4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="9">
+      <c r="H4" s="9">
         <v>39.085757362131652</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>582</v>
       </c>
       <c r="B5" s="3">
         <v>1241</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="E5" s="9">
         <v>584</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6" t="s">
+      <c r="F5" s="9"/>
+      <c r="G5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="9">
+      <c r="H5" s="9">
         <v>1068</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>199</v>
       </c>
       <c r="B6" s="3">
         <v>753</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="9">
+      <c r="E6" s="9">
         <v>592</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="6" t="s">
+      <c r="F6" s="9"/>
+      <c r="G6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I6" s="9">
+      <c r="H6" s="9">
         <v>1448</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>585</v>
       </c>
       <c r="B7" s="3">
         <v>711</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="9">
+      <c r="E7" s="9">
         <v>208.08174076575872</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6" t="s">
+      <c r="F7" s="9"/>
+      <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="9">
+      <c r="H7" s="9">
         <v>273.60030153492158</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>172</v>
       </c>
       <c r="B8" s="3">
         <v>626</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="9">
+      <c r="E8" s="9">
         <v>43298.010840108414</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6" t="s">
+      <c r="F8" s="9"/>
+      <c r="G8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="9">
+      <c r="H8" s="9">
         <v>74857.125</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>595</v>
       </c>
       <c r="B9" s="4">
         <v>1448</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="9">
+      <c r="E9" s="9">
         <v>-1.9585370210599007</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="6" t="s">
+      <c r="F9" s="9"/>
+      <c r="G9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="9">
+      <c r="H9" s="9">
         <v>-0.9426816576017143</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>194</v>
       </c>
       <c r="B10" s="5">
         <v>1263</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="9">
+      <c r="E10" s="9">
         <v>-0.26414210433952362</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="6" t="s">
+      <c r="F10" s="9"/>
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="9">
+      <c r="H10" s="9">
         <v>-0.32569211509997165</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>585</v>
       </c>
       <c r="B11" s="5">
         <v>1021</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="9">
+      <c r="E11" s="9">
         <v>457</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="6" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I11" s="9">
+      <c r="H11" s="9">
         <v>965</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>173</v>
       </c>
       <c r="B12" s="5">
         <v>1040</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="9">
+      <c r="E12" s="9">
         <v>157</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="6" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="9">
+      <c r="H12" s="9">
         <v>528</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>588</v>
       </c>
       <c r="B13" s="5">
         <v>1137</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="D13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="9">
+      <c r="E13" s="9">
         <v>614</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="6" t="s">
+      <c r="F13" s="9"/>
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="9">
+      <c r="H13" s="9">
         <v>1493</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>173</v>
       </c>
       <c r="B14" s="5">
         <v>885</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="9">
+      <c r="E14" s="9">
         <v>33686</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="6" t="s">
+      <c r="F14" s="9"/>
+      <c r="G14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="9">
+      <c r="H14" s="9">
         <v>52353</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>583</v>
       </c>
       <c r="B15" s="5">
         <v>677</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="D15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="9">
+      <c r="E15" s="9">
         <v>82</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="6" t="s">
+      <c r="F15" s="9"/>
+      <c r="G15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="9">
+      <c r="H15" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>174</v>
       </c>
       <c r="B16" s="4">
         <v>1068</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="10">
+      <c r="E16" s="10">
         <v>45.720572614749472</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="7" t="s">
+      <c r="F16" s="12"/>
+      <c r="G16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I16" s="10">
+      <c r="H16" s="10">
         <v>78.587182280369092</v>
       </c>
     </row>
@@ -2108,6 +2156,9 @@
       <c r="B19" s="5">
         <v>1155</v>
       </c>
+      <c r="E19" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -2125,6 +2176,13 @@
       <c r="B21" s="5">
         <v>671</v>
       </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
@@ -2133,6 +2191,15 @@
       <c r="B22" s="5">
         <v>1276</v>
       </c>
+      <c r="E22" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="6">
+        <v>374.42857142857144</v>
+      </c>
+      <c r="G22" s="6">
+        <v>1068.4285714285713</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
@@ -2141,6 +2208,15 @@
       <c r="B23" s="4">
         <v>841</v>
       </c>
+      <c r="E23" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="6">
+        <v>43600.708333333336</v>
+      </c>
+      <c r="G23" s="6">
+        <v>74857.125</v>
+      </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
@@ -2149,6 +2225,15 @@
       <c r="B24" s="5">
         <v>1436</v>
       </c>
+      <c r="E24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="6">
+        <v>49</v>
+      </c>
+      <c r="G24" s="6">
+        <v>49</v>
+      </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -2157,6 +2242,15 @@
       <c r="B25" s="5">
         <v>1484</v>
       </c>
+      <c r="E25" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="6">
+        <v>48</v>
+      </c>
+      <c r="G25" s="6">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -2165,6 +2259,13 @@
       <c r="B26" s="5">
         <v>1255</v>
       </c>
+      <c r="E26" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0.58245234950358216</v>
+      </c>
+      <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -2173,6 +2274,13 @@
       <c r="B27" s="5">
         <v>1003</v>
       </c>
+      <c r="E27" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="6">
+        <v>3.2045039438272194E-2</v>
+      </c>
+      <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -2181,6 +2289,14 @@
       <c r="B28" s="5">
         <v>1448</v>
       </c>
+      <c r="E28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.61905309760098248</v>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">

--- a/reports/Comparativa.xlsx
+++ b/reports/Comparativa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Universidad\DP2\Workspace-21.1\Projects\G98-DP2\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B109977-31C8-4C40-8AD9-7AE7DC1FC130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1E9153-B914-4D8E-97B4-AB873B9EB369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D35EAB15-E639-4BAC-9261-B3A8FD2F93E1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>My analysis</t>
   </si>
@@ -103,6 +103,27 @@
   </si>
   <si>
     <t>Valor crítico para F (una cola)</t>
+  </si>
+  <si>
+    <t>Prueba t para dos muestras suponiendo varianzas desiguales</t>
+  </si>
+  <si>
+    <t>Diferencia hipotética de las medias</t>
+  </si>
+  <si>
+    <t>Estadístico t</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) una cola</t>
+  </si>
+  <si>
+    <t>Valor crítico de t (una cola)</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) dos colas</t>
+  </si>
+  <si>
+    <t>Valor crítico de t (dos colas)</t>
   </si>
 </sst>
 </file>
@@ -1799,16 +1820,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2003DE86-C5E5-401D-ADA6-B7ACA17427C7}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" style="2"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2133,7 +2155,7 @@
         <v>78.587182280369092</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>592</v>
       </c>
@@ -2141,7 +2163,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>164</v>
       </c>
@@ -2149,7 +2171,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>592</v>
       </c>
@@ -2160,7 +2182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>189</v>
       </c>
@@ -2169,7 +2191,7 @@
       </c>
       <c r="J20" s="11"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>592</v>
       </c>
@@ -2184,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>159</v>
       </c>
@@ -2194,14 +2216,14 @@
       <c r="E22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="9">
         <v>374.42857142857144</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="9">
         <v>1068.4285714285713</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>174</v>
       </c>
@@ -2211,14 +2233,14 @@
       <c r="E23" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="9">
         <v>43600.708333333336</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="9">
         <v>74857.125</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>593</v>
       </c>
@@ -2228,14 +2250,14 @@
       <c r="E24" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="9">
         <v>49</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="9">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>603</v>
       </c>
@@ -2245,14 +2267,14 @@
       <c r="E25" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="9">
         <v>48</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>199</v>
       </c>
@@ -2262,12 +2284,12 @@
       <c r="E26" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="9">
         <v>0.58245234950358216</v>
       </c>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>159</v>
       </c>
@@ -2277,12 +2299,12 @@
       <c r="E27" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="9">
         <v>3.2045039438272194E-2</v>
       </c>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>597</v>
       </c>
@@ -2292,21 +2314,24 @@
       <c r="E28" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="10">
         <v>0.61905309760098248</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="10"/>
       <c r="J28" s="13"/>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>159</v>
       </c>
       <c r="B29" s="5">
         <v>1330</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>159</v>
       </c>
@@ -2314,95 +2339,178 @@
         <v>528</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>603</v>
       </c>
       <c r="B31" s="5">
         <v>1296</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I31" s="8"/>
+      <c r="J31" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>592</v>
       </c>
       <c r="B32" s="5">
         <v>1321</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="9">
+        <v>374.42857142857144</v>
+      </c>
+      <c r="K32" s="9">
+        <v>1068.4285714285713</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>211</v>
       </c>
       <c r="B33" s="5">
         <v>1073</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I33" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="9">
+        <v>43600.708333333336</v>
+      </c>
+      <c r="K33" s="9">
+        <v>74857.125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>174</v>
       </c>
       <c r="B34" s="5">
         <v>1493</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I34" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="9">
+        <v>49</v>
+      </c>
+      <c r="K34" s="9">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>598</v>
       </c>
       <c r="B35" s="5">
         <v>1221</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I35" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="9">
+        <v>0</v>
+      </c>
+      <c r="K35" s="9"/>
+    </row>
+    <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>159</v>
       </c>
       <c r="B36" s="5">
         <v>1388</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="9">
+        <v>90</v>
+      </c>
+      <c r="K36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>592</v>
       </c>
       <c r="B37" s="4">
         <v>1340</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I37" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J37" s="9">
+        <v>-14.114828901339303</v>
+      </c>
+      <c r="K37" s="9"/>
+    </row>
+    <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>159</v>
       </c>
       <c r="B38" s="5">
         <v>575</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I38" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J38" s="9">
+        <v>7.7000038480243152E-25</v>
+      </c>
+      <c r="K38" s="9"/>
+    </row>
+    <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>593</v>
       </c>
       <c r="B39" s="5">
         <v>1255</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I39" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1.661961084030164</v>
+      </c>
+      <c r="K39" s="9"/>
+    </row>
+    <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>173</v>
       </c>
       <c r="B40" s="5">
         <v>600</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I40" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J40" s="9">
+        <v>1.540000769604863E-24</v>
+      </c>
+      <c r="K40" s="9"/>
+    </row>
+    <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>596</v>
       </c>
       <c r="B41" s="5">
         <v>1308</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I41" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="10">
+        <v>1.986674540703772</v>
+      </c>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>174</v>
       </c>
@@ -2410,7 +2518,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>587</v>
       </c>
@@ -2418,7 +2526,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>176</v>
       </c>
@@ -2426,7 +2534,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>602</v>
       </c>
@@ -2434,7 +2542,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>158</v>
       </c>
@@ -2442,7 +2550,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>594</v>
       </c>
@@ -2450,7 +2558,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>176</v>
       </c>

--- a/reports/Comparativa.xlsx
+++ b/reports/Comparativa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\Universidad\DP2\Workspace-21.1\Projects\G98-DP2\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1E9153-B914-4D8E-97B4-AB873B9EB369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB13D049-E4F5-49FE-A2D5-E26CD3175057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="828" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{D35EAB15-E639-4BAC-9261-B3A8FD2F93E1}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>My analysis</t>
   </si>
@@ -84,46 +84,28 @@
     <t>Nivel de confianza(95.0%)</t>
   </si>
   <si>
-    <t>Prueba F para varianzas de dos muestras</t>
-  </si>
-  <si>
-    <t>Varianza</t>
-  </si>
-  <si>
     <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Grados de libertad</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>P(F&lt;=f) una cola</t>
-  </si>
-  <si>
-    <t>Valor crítico para F (una cola)</t>
-  </si>
-  <si>
-    <t>Prueba t para dos muestras suponiendo varianzas desiguales</t>
   </si>
   <si>
     <t>Diferencia hipotética de las medias</t>
   </si>
   <si>
-    <t>Estadístico t</t>
+    <t>Prueba z para medias de dos muestras</t>
   </si>
   <si>
-    <t>P(T&lt;=t) una cola</t>
+    <t>Varianza (conocida)</t>
   </si>
   <si>
-    <t>Valor crítico de t (una cola)</t>
+    <t>z</t>
   </si>
   <si>
-    <t>P(T&lt;=t) dos colas</t>
+    <t>P(Z&lt;=z) una cola</t>
   </si>
   <si>
-    <t>Valor crítico de t (dos colas)</t>
+    <t>Valor crítico de z (una cola)</t>
+  </si>
+  <si>
+    <t>Valor crítico de z (dos colas)</t>
   </si>
 </sst>
 </file>
@@ -247,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -271,7 +253,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,7 +304,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="es-ES"/>
+              <a:rPr lang="en-US"/>
               <a:t>Comparativa</a:t>
             </a:r>
           </a:p>
@@ -391,10 +372,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$50</c:f>
+              <c:f>Hoja1!$A$2:$A$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>283</c:v>
                 </c:pt>
@@ -541,13 +522,112 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>614</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>589</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>602</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>601</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>586</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>583</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>588</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>605</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>590</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>587</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9308-42E5-8532-A11393D32E39}"/>
+              <c16:uniqueId val="{00000000-A7AA-47A9-AD90-ABF533CABF41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -577,10 +657,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$B$50</c:f>
+              <c:f>Hoja1!$B$2:$B$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="82"/>
                 <c:pt idx="0">
                   <c:v>1036</c:v>
                 </c:pt>
@@ -733,7 +813,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9308-42E5-8532-A11393D32E39}"/>
+              <c16:uniqueId val="{00000001-A7AA-47A9-AD90-ABF533CABF41}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -747,11 +827,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="476984943"/>
-        <c:axId val="477001999"/>
+        <c:axId val="589209071"/>
+        <c:axId val="589224047"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="476984943"/>
+        <c:axId val="589209071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -793,7 +873,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="477001999"/>
+        <c:crossAx val="589224047"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -801,7 +881,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="477001999"/>
+        <c:axId val="589224047"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -852,7 +932,7 @@
             <a:endParaRPr lang="es-ES"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="476984943"/>
+        <c:crossAx val="589209071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1486,23 +1566,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>182880</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2">
+        <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD925F31-EA83-4F81-A5BB-0CFBD1FAF350}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBE0252E-E207-4CD8-8FDF-9D3FA83B59EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1822,14 +1902,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2003DE86-C5E5-401D-ADA6-B7ACA17427C7}">
   <dimension ref="A1:K83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M36" sqref="M36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5546875" style="2"/>
-    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.44140625" customWidth="1"/>
     <col min="9" max="9" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2170,6 +2253,9 @@
       <c r="B18" s="5">
         <v>1259</v>
       </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
@@ -2178,9 +2264,6 @@
       <c r="B19" s="5">
         <v>1155</v>
       </c>
-      <c r="E19" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
@@ -2189,6 +2272,13 @@
       <c r="B20" s="5">
         <v>1026</v>
       </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>1</v>
+      </c>
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2198,12 +2288,14 @@
       <c r="B21" s="5">
         <v>671</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>1</v>
+      <c r="D21" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" s="9">
+        <v>410.80487804878049</v>
+      </c>
+      <c r="F21" s="9">
+        <v>1068.4285714285713</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2213,14 +2305,14 @@
       <c r="B22" s="5">
         <v>1276</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>2</v>
+      <c r="D22" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="9">
+        <v>43298.01</v>
       </c>
       <c r="F22" s="9">
-        <v>374.42857142857144</v>
-      </c>
-      <c r="G22" s="9">
-        <v>1068.4285714285713</v>
+        <v>74857.13</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2230,14 +2322,14 @@
       <c r="B23" s="4">
         <v>841</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>17</v>
+      <c r="D23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="9">
+        <v>82</v>
       </c>
       <c r="F23" s="9">
-        <v>43600.708333333336</v>
-      </c>
-      <c r="G23" s="9">
-        <v>74857.125</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2247,15 +2339,13 @@
       <c r="B24" s="5">
         <v>1436</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="9">
-        <v>49</v>
-      </c>
-      <c r="G24" s="9">
-        <v>49</v>
-      </c>
+      <c r="D24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
@@ -2264,15 +2354,13 @@
       <c r="B25" s="5">
         <v>1484</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="9">
-        <v>48</v>
-      </c>
-      <c r="G25" s="9">
-        <v>48</v>
-      </c>
+      <c r="D25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="9">
+        <v>-14.504252818794001</v>
+      </c>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
@@ -2281,13 +2369,13 @@
       <c r="B26" s="5">
         <v>1255</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="9">
-        <v>0.58245234950358216</v>
-      </c>
-      <c r="G26" s="9"/>
+      <c r="D26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27">
@@ -2296,13 +2384,13 @@
       <c r="B27" s="5">
         <v>1003</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="9">
-        <v>3.2045039438272194E-2</v>
-      </c>
-      <c r="G27" s="9"/>
+      <c r="D27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="9">
+        <v>1.6448536269514715</v>
+      </c>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28">
@@ -2311,14 +2399,13 @@
       <c r="B28" s="5">
         <v>1448</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="10">
-        <v>0.61905309760098248</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="J28" s="13"/>
+      <c r="D28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29">
@@ -2327,9 +2414,13 @@
       <c r="B29" s="5">
         <v>1330</v>
       </c>
-      <c r="I29" t="s">
+      <c r="D29" s="7" t="s">
         <v>23</v>
       </c>
+      <c r="E29" s="10">
+        <v>1.9599639845400536</v>
+      </c>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30">
@@ -2346,13 +2437,6 @@
       <c r="B31" s="5">
         <v>1296</v>
       </c>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="K31" s="8" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="32" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32">
@@ -2361,15 +2445,9 @@
       <c r="B32" s="5">
         <v>1321</v>
       </c>
-      <c r="I32" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="J32" s="9">
-        <v>374.42857142857144</v>
-      </c>
-      <c r="K32" s="9">
-        <v>1068.4285714285713</v>
-      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33">
@@ -2378,15 +2456,9 @@
       <c r="B33" s="5">
         <v>1073</v>
       </c>
-      <c r="I33" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="9">
-        <v>43600.708333333336</v>
-      </c>
-      <c r="K33" s="9">
-        <v>74857.125</v>
-      </c>
+      <c r="I33" s="6"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34">
@@ -2395,15 +2467,9 @@
       <c r="B34" s="5">
         <v>1493</v>
       </c>
-      <c r="I34" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="9">
-        <v>49</v>
-      </c>
-      <c r="K34" s="9">
-        <v>49</v>
-      </c>
+      <c r="I34" s="6"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
     </row>
     <row r="35" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35">
@@ -2412,12 +2478,8 @@
       <c r="B35" s="5">
         <v>1221</v>
       </c>
-      <c r="I35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="9">
-        <v>0</v>
-      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
     </row>
     <row r="36" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2427,12 +2489,8 @@
       <c r="B36" s="5">
         <v>1388</v>
       </c>
-      <c r="I36" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J36" s="9">
-        <v>90</v>
-      </c>
+      <c r="I36" s="6"/>
+      <c r="J36" s="9"/>
       <c r="K36" s="9"/>
     </row>
     <row r="37" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2442,12 +2500,8 @@
       <c r="B37" s="4">
         <v>1340</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J37" s="9">
-        <v>-14.114828901339303</v>
-      </c>
+      <c r="I37" s="6"/>
+      <c r="J37" s="9"/>
       <c r="K37" s="9"/>
     </row>
     <row r="38" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2457,12 +2511,8 @@
       <c r="B38" s="5">
         <v>575</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J38" s="9">
-        <v>7.7000038480243152E-25</v>
-      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="9"/>
       <c r="K38" s="9"/>
     </row>
     <row r="39" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2472,12 +2522,8 @@
       <c r="B39" s="5">
         <v>1255</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="9">
-        <v>1.661961084030164</v>
-      </c>
+      <c r="I39" s="6"/>
+      <c r="J39" s="9"/>
       <c r="K39" s="9"/>
     </row>
     <row r="40" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2487,12 +2533,8 @@
       <c r="B40" s="5">
         <v>600</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J40" s="9">
-        <v>1.540000769604863E-24</v>
-      </c>
+      <c r="I40" s="6"/>
+      <c r="J40" s="9"/>
       <c r="K40" s="9"/>
     </row>
     <row r="41" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2502,12 +2544,8 @@
       <c r="B41" s="5">
         <v>1308</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" s="10">
-        <v>1.986674540703772</v>
-      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
